--- a/Gen_4/2.xlsx
+++ b/Gen_4/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epyur\PycharmProjects\PythonProject\Gen_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CB3CD2-B36B-4807-8A38-F03DAD727C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0726D886-BBC8-4BEF-9F63-8C6E263547C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>inc_ID</t>
+  </si>
+  <si>
+    <t>date_in</t>
+  </si>
+  <si>
+    <t>30.12.2024</t>
+  </si>
+  <si>
+    <t>cust_mail</t>
+  </si>
+  <si>
+    <t>inv_aim</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>Группа горючести</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>ЛПИ</t>
+  </si>
+  <si>
+    <t>ext_lab_name</t>
+  </si>
+  <si>
+    <t>ekn</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>LOGICPIR PROF ФФ Г1</t>
+  </si>
+  <si>
+    <t>idetnity</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Теплоизоляционные жесткие высокопрочные плиты на основе вспененного полиизоцианурата (PIR), кашированные с двух сторон алюминиевой фольгой или стеклохолстом</t>
+  </si>
+  <si>
+    <t>material_type</t>
+  </si>
+  <si>
+    <t>number_of_samples</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>aim_indicator</t>
+  </si>
+  <si>
+    <t>link_to_file</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>expense_item</t>
+  </si>
+  <si>
+    <t>matching_agent</t>
+  </si>
+  <si>
+    <t>matching_agent_mail</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>pir</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Плиты из пенополиизоцианурата PIR</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>comb_indicator</t>
+  </si>
+  <si>
+    <t>Г1</t>
+  </si>
+  <si>
+    <t>flam_indicator</t>
+  </si>
+  <si>
+    <t>В2</t>
+  </si>
+  <si>
+    <t>prop_indicator</t>
+  </si>
+  <si>
+    <t>н/н</t>
+  </si>
+  <si>
+    <t>ki_indicator</t>
+  </si>
+  <si>
+    <t>sto</t>
+  </si>
+  <si>
+    <t>СТО 72746455-3.8.1-2017</t>
+  </si>
+  <si>
+    <t>producer</t>
+  </si>
+  <si>
+    <t>ООО "Завод "Лоджикруф"" (ПИР)</t>
+  </si>
+  <si>
+    <t>full_description</t>
+  </si>
+  <si>
+    <t>Теплоизоляционный материал LOGICPIR PROF Ф/Ф на основе PIR (пенополиизоцианурата) относится к классу полимеров-реактопластов.
+Плиты облицованы фольгой, обработанной специальным лаком, который гарантирует устойчивость к окислению и высокую адгезию с PIR. Закрытая ячеистая структура утеплителя наполнена газом, который обеспечивает низкую теплопроводность материала. Химическое строение PIR характеризуется сочетанием жёсткой кольцевой структуры молекул и высокопрочных химических связей. Все это в комплексе обеспечивает повышенную устойчивость утеплителя к воздействию огня. При воздействии пламени на поверхность плит LOGICPIR PROF Ф/Ф происходит процесс карбонизации с образованием «пористой» защитной матрицы, которая препятствует дальнейшему термическому разложению материала и способствует сохранению целостности строительной конструкции.
+Теплоизоляционные плиты LOGICPIR PROF Ф/Ф имеют высокую прочность на сжатие, минимальное водопоглощение, устойчивы к воздействию агрессивных химических сред и бактерий. Благодаря этим свойствам гарантируемый срок эксплуатации утеплителя LOGICPIR PROF Ф/Ф более 50 лет. Кроме того, материал является экологически чистым и безопасным.
+Плиты LOGICPIR PROF Ф/Ф обладают прямыми или отформованными торцами в виде «L»-кромки. Для комфортного выполнения работ в солнечную погоду с двух сторон плит LOGICPIR PROF Ф/Ф применяется фольга с антибликовым покрытием.</t>
+  </si>
+  <si>
+    <t>comb_amb_temp</t>
+  </si>
+  <si>
+    <t>comb_amb_pres</t>
+  </si>
+  <si>
+    <t>comb_amb_moist</t>
+  </si>
   <si>
     <t>exp_id</t>
   </si>
@@ -34,12 +187,6 @@
     <t>{3: '30.12.2024', 2: '30.12.2024', 1: '30.12.2024'}</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>{3: 'ЛПИ', 2: 'ЛПИ', 1: 'ЛПИ'}</t>
-  </si>
-  <si>
     <t>inventor</t>
   </si>
   <si>
@@ -55,21 +202,18 @@
     <t>exp_date</t>
   </si>
   <si>
-    <t>link_to_file</t>
+    <t>temp_of_smog</t>
+  </si>
+  <si>
+    <t>{3: 125, 2: 119, 1: 122}</t>
+  </si>
+  <si>
+    <t>time_of_max_temp</t>
   </si>
   <si>
     <t>{3: nan, 2: nan, 1: nan}</t>
   </si>
   <si>
-    <t>temp_of_smog</t>
-  </si>
-  <si>
-    <t>{3: 125, 2: 119, 1: 122}</t>
-  </si>
-  <si>
-    <t>time_of_max_temp</t>
-  </si>
-  <si>
     <t>len_1</t>
   </si>
   <si>
@@ -143,6 +287,33 @@
   </si>
   <si>
     <t>temperature_graph</t>
+  </si>
+  <si>
+    <t>mean_len_exp</t>
+  </si>
+  <si>
+    <t>{3: 30.5, 2: 31.5, 1: 38.25}</t>
+  </si>
+  <si>
+    <t>mean_len_gen</t>
+  </si>
+  <si>
+    <t>mass_loss</t>
+  </si>
+  <si>
+    <t>{3: 7.59, 2: 6.2, 1: 7.29}</t>
+  </si>
+  <si>
+    <t>mass_loss_gen</t>
+  </si>
+  <si>
+    <t>combustion_time_gen</t>
+  </si>
+  <si>
+    <t>burning_drops_gen</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -198,11 +369,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,16 +680,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,8 +707,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1942114822</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,10 +738,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,10 +746,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,10 +754,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,10 +762,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +770,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,10 +781,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,10 +792,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>644713</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +811,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,21 +822,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,10 +844,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,10 +852,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,10 +871,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,10 +879,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,10 +887,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,10 +895,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,10 +903,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,10 +911,444 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
+      <c r="C31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Gen_4/2.xlsx
+++ b/Gen_4/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Служебный идентификатор</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -460,11 +460,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>inc_ID</t>
+          <t>Идентификатор заявки</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1942112987</v>
+        <v>1955327921</v>
       </c>
     </row>
     <row r="4">
@@ -473,12 +473,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>date_in</t>
+          <t>Дата поступления заявки</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30.12.2024</t>
+          <t>17.01.2025</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cust_mail</t>
+          <t>Электронная почта заказчика</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -499,10 +499,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inv_aim</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Цель проведения испытаний</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>НИОКР ПВХ</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -510,7 +514,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>form</t>
+          <t>Форма подтверждения соответствия (опционально)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -521,10 +525,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>priority</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>Приоритетность заявки</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -532,12 +540,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>indicator</t>
+          <t>Определяемые показатели</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Группа горючести</t>
+          <t>Группа горючести, Группа воспламеняемости</t>
         </is>
       </c>
     </row>
@@ -547,12 +555,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>Наименование лаборатории</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ЛПИ</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -562,7 +570,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ext_lab_name</t>
+          <t>ЕКН</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -573,11 +581,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ekn</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>696460</v>
+          <t>Наименование материала</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TSTN , Китай</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -586,12 +596,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>product_name</t>
+          <t>Идентификатор материала (№ партии или др. идентифицирующая информация)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LOGICPIR PROF ФФ Г1 L-2385х1185х45</t>
+          <t>Материал конкурентов TSTN , Китай</t>
         </is>
       </c>
     </row>
@@ -601,11 +611,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>idetnity</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>8078</v>
+          <t>Краткое описание (в протокол)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{nan: nan}</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -614,14 +626,10 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Теплоизоляционные жесткие высокопрочные плиты на основе вспененного полиизоцианурата (PIR), кашированные с двух сторон алюминиевой фольгой или стеклохолстом</t>
-        </is>
-      </c>
+          <t>Тип материала (для отдельных видов испытаний)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -629,10 +637,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>material_type</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>Количество образцов переданных на испытания</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -640,10 +652,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>number_of_samples</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Толщина, мм</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -651,12 +667,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>thickness</t>
+          <t>Целевой показатель (для НИОКР)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -666,7 +682,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>aim_indicator</t>
+          <t>Ссылка на файл (к заявке)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -677,10 +693,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>link_to_file</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Наименование бюджета (для СБЕ кроме ПМиПИР)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -688,10 +708,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>budget</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Статья расходов (для СБЕ кроме ПМиПИР)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -699,10 +723,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>expense_item</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ФИО лица согласующего расходы</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -710,10 +738,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>matching_agent</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>e-mail лица согласующего расходы</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -721,10 +753,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>matching_agent_mail</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Служебный код материала</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{nan: nan}</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -732,12 +768,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>Групповая принадлежность материала</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>pir</t>
+          <t>{nan: nan}</t>
         </is>
       </c>
     </row>
@@ -747,12 +783,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>Цвет</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Плиты из пенополиизоцианурата PIR</t>
+          <t>{nan: nan}</t>
         </is>
       </c>
     </row>
@@ -762,10 +798,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>color</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Группа горючести (декларируемая)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Г2</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -773,12 +813,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>comb_indicator</t>
+          <t>Группа воспламеняемости (декларируемая)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Г1</t>
+          <t>В2</t>
         </is>
       </c>
     </row>
@@ -788,14 +828,10 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>flam_indicator</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>В2</t>
-        </is>
-      </c>
+          <t>Группа распространения пламени (декларируемая)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -803,12 +839,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prop_indicator</t>
+          <t>СТО (ТУ) на материал</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>н/н</t>
+          <t>{nan: nan}</t>
         </is>
       </c>
     </row>
@@ -818,11 +854,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ki_indicator</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>17</v>
+          <t>Производитель</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{nan: nan}</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -831,12 +869,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sto</t>
+          <t>Расширенное описание материала</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>СТО 72746455-3.8.1-2017</t>
+          <t>{nan: nan}</t>
         </is>
       </c>
     </row>
@@ -846,12 +884,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>producer</t>
+          <t>1. Определение группы горючести</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ООО "Завод "Лоджикруф"" (ПИР)</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -861,15 +899,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>full_description</t>
+          <t>1.1 Температура воздуха, оС</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Теплоизоляционный материал LOGICPIR PROF Ф/Ф на основе PIR (пенополиизоцианурата) относится к классу полимеров-реактопластов.
-Плиты облицованы фольгой, обработанной специальным лаком, который гарантирует устойчивость к окислению и высокую адгезию с PIR. Закрытая ячеистая структура утеплителя наполнена газом, который обеспечивает низкую теплопроводность материала. Химическое строение PIR характеризуется сочетанием жёсткой кольцевой структуры молекул и высокопрочных химических связей. Все это в комплексе обеспечивает повышенную устойчивость утеплителя к воздействию огня. При воздействии пламени на поверхность плит LOGICPIR PROF Ф/Ф происходит процесс карбонизации с образованием «пористой» защитной матрицы, которая препятствует дальнейшему термическому разложению материала и способствует сохранению целостности строительной конструкции.
-Теплоизоляционные плиты LOGICPIR PROF Ф/Ф имеют высокую прочность на сжатие, минимальное водопоглощение, устойчивы к воздействию агрессивных химических сред и бактерий. Благодаря этим свойствам гарантируемый срок эксплуатации утеплителя LOGICPIR PROF Ф/Ф более 50 лет. Кроме того, материал является экологически чистым и безопасным.
-Плиты LOGICPIR PROF Ф/Ф обладают прямыми или отформованными торцами в виде «L»-кромки. Для комфортного выполнения работ в солнечную погоду с двух сторон плит LOGICPIR PROF Ф/Ф применяется фольга с антибликовым покрытием.</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -879,11 +914,13 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>comb_amb_temp</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>21</v>
+          <t>1.2 Атмосферное давление, кПа</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -892,12 +929,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>comb_amb_pres</t>
+          <t>1.3 Влажность воздуха</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -907,11 +944,13 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>comb_amb_moist</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>48</v>
+          <t>1.4 Идентификаторы записей испытаний</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -920,12 +959,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>exp_id</t>
+          <t>1.5 Дата формирования протокола</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{3: 1942113770, 1: 1942112987, 2: 1942113387}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -935,12 +974,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>report_date</t>
+          <t>1.6 ФИО испытателя</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{3: '30.12.2024', 1: '30.12.2024', 2: '30.12.2024'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -950,12 +989,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>inventor</t>
+          <t>1.7 Дата предоставления образцов</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{3: 'Испытатель:\nМ.В. Швецов', 1: 'Испытатель:\nМ.В. Швецов', 2: 'Испытатель:\nМ.В. Швецов'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -965,12 +1004,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>sampels_in_date</t>
+          <t>1.8 Дата проведения испытаний</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{3: '2024-11-28', 1: '2024-11-28', 2: '2024-11-28'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -980,12 +1019,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>exp_date</t>
+          <t>1.9.1 Температура дымовых газов (ТП1)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{3: '2024-11-28', 1: '2024-11-28', 2: '2024-11-28'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -995,12 +1034,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>temp_of_smog</t>
+          <t>1.9.2 Температура дымовых газов (ТП2)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{3: 114, 1: 106, 2: 111}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1010,12 +1049,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>time_of_max_temp</t>
+          <t>1.9.3 Температура дымовых газов (ТП3)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{3: nan, 1: nan, 2: nan}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1064,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>len_1</t>
+          <t>1.9.4 Температура дымовых газов (ТП4)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{3: 24, 1: 25, 2: 21}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1079,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>len_2</t>
+          <t>1.10 Средняя температура дымовых газов в рамках серии</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{3: 32, 1: 28, 2: 31}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1094,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>len_3</t>
+          <t>1.11 Отнесение к группам горючести по температуре газов, в рамках серии</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{3: 23, 1: 24, 2: 29}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1109,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>len_4</t>
+          <t>1.12 Соответствие декларируемым показателям по температуре газов, в рамках серии</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{3: 33, 1: 27, 2: 28}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1124,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mass_before</t>
+          <t>1.13. Средняя температура дымовых газов</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{3: 1174, 1: 1182, 2: 1176}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1139,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mass_after</t>
+          <t>1.14. Отнесение к группе горючести по температуре газов (общее)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{3: 1096, 1: 1106, 2: 1102}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1154,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>combustion_time</t>
+          <t>1.15 Общее соответствие с декларируемым показателем по температуре дымовых газов</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{3: 0, 1: 0, 2: 0}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1169,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>burning_drops</t>
+          <t>1.16 Время достижения максимальной температуры, с</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{3: 'Нет', 1: 'Нет', 2: 'Нет'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1184,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>substrate</t>
+          <t>1.20.1 Образец №1. Длина повреждений, мм</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{3: 'Без основания', 1: 'Без основания', 2: 'Без основания'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1199,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mounting_method</t>
+          <t>1.20.2 Образец №2. Длина повреждений, мм</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{3: 'Без крепления', 1: 'Без крепления', 2: 'Без крепления'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1175,12 +1214,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>additional_inf</t>
+          <t>1.20.3 Образец №3. Длина повреждений, мм</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{3: 'Газ (Пропан) 9л/мин-20 Hz', 1: 'Газ (Пропан) 9л/мин-20 Hz', 2: 'Газ (Пропан) 9л/мин-20 Hz'}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1229,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>photo_before</t>
+          <t>1.20.4 Образец №4. Длина повреждений, мм</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{3: nan, 1: nan, 2: nan}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1244,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>photo_after</t>
+          <t>1.21 Средняя длина повреждений, по сериям, мм</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{3: nan, 1: nan, 2: nan}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1259,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>temperature_graph</t>
+          <t>1.22 Отнесение к группам горючести, по сериям</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{3: nan, 1: nan, 2: nan}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1274,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>mean_len_exp</t>
+          <t>1.23 Соотвествие декларируемой группе горючести по длине повреждений, для серий</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{3: 28.0, 1: 26.0, 2: 27.25}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1250,11 +1289,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mean_len_gen</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>27.08</v>
+          <t>1.24 Средняя длина повреждений, %</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1263,12 +1304,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mass_loss</t>
+          <t>1.25 Отнесение к группе горючести по длине повреждений</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{3: 6.64, 1: 6.43, 2: 6.29}</t>
+          <t>-//-</t>
         </is>
       </c>
     </row>
@@ -1278,11 +1319,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mass_loss_gen</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>6.45</v>
+          <t>1.26 Общее соответствие декларируемому показателю (по длине повреждений)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1291,11 +1334,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>combustion_time_gen</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
+          <t>1.27 Масса образцов до испытания</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1304,12 +1349,402 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>burning_drops_gen</t>
+          <t>1.28 Масса образцов после испытания</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.29 Потеря массы по сериям</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.30 Отнесение к группам горючести, по сериям</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.31 Соответствие декларируемой группе горючести, по сериям</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.32 Средняя потеря массы</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.33 Группа горючести по потере массы</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1.34 Соответствие декларируемой группе горючести по потере массы</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1.35 Время самостоятельного горения, по сериям, с</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1.36 Отнесение к группам горючести, по времени самостоятельного горения по сериям</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.37 Соответствие декларируемой группе горючести по самостоятельному горению, по сериям</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.38 Среднее время самостоятельного горения, с</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1.39 Группа горючести по самостоятельному горению</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.40 Соответствие декларируемой группе горючести, по самостоятельному горению</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.41 Падение горящих капель, по сериям</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.42 Группы горючести по падению капель, по сериям</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1.43 Соответствие декларируемой группе горючести по падению капель, по сериям</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1.44 Падение горящих капель, общая оценка</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1.45 Группа горючести по падению горящих капель, общая оценка</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.46 Соответствие декларируемой группе горючести по падению капель, общая оценка</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1.47 Общая оценка группы горючести</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1.48 Общее соответствие</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1.49 Основание под образец</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1.50 Способ крепления образца</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.51 Дополнительная информация</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.52 Фото образцов до испытания</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.53 Фото образцов после испытаний</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>-//-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.54 График температуры</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>-//-</t>
         </is>
       </c>
     </row>
